--- a/io-gateway/bom1.xlsx
+++ b/io-gateway/bom1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baischerl\Documents\localProject\cad\RS485-IO-Extension\io-gateway\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{469529B1-E028-4D6F-8A46-2F5EDFBCC33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{199A55BB-7C25-435D-9956-545AEF6916F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F15727DA-6B17-406F-B179-A37C389DC2DE}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="169">
   <si>
     <t>Id</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Quantitiy for 10 Pics</t>
   </si>
   <si>
-    <t>Quantitiy with margin</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Overall Price </t>
   </si>
   <si>
@@ -103,12 +100,6 @@
     <t>CP_Elec_6.3x5.4</t>
   </si>
   <si>
-    <t>47ÂµF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> € -   </t>
-  </si>
-  <si>
     <t>Auf Lager</t>
   </si>
   <si>
@@ -118,9 +109,6 @@
     <t>C_1206_3216Metric</t>
   </si>
   <si>
-    <t>1ÂµF 50V</t>
-  </si>
-  <si>
     <t>CL31B105KCHNNNE Samsung Electro-Mechanics | Mouser Österreich</t>
   </si>
   <si>
@@ -139,9 +127,6 @@
     <t>MMSD914</t>
   </si>
   <si>
-    <t>MMSD914T1G onsemi | Mouser Österreich</t>
-  </si>
-  <si>
     <t>D_DIMA_2,D_DIMA_8,D_DIMB_2,D_DIMB_6,D_DIMB_10,D_DIMB_8,D_DIMA_6,D_DIMA_10</t>
   </si>
   <si>
@@ -181,9 +166,6 @@
     <t>L_12x12mm_H8mm</t>
   </si>
   <si>
-    <t>47ÂµH  3.8A</t>
-  </si>
-  <si>
     <t>IFDC5050JZER470M Vishay / Dale | Mouser Österreich</t>
   </si>
   <si>
@@ -226,9 +208,6 @@
     <t>100k</t>
   </si>
   <si>
-    <t>https://www.mouser.at/ProductDetail/YAGEO/RC0603FR-7W100KL?qs=sGAEpiMZZMtlubZbdhIBIE8A1EWi7VIOaARuCRznIl0%3D</t>
-  </si>
-  <si>
     <t>R_DIMB_2,R_DIMA_2,R_DIMB_6,R_DIMA_6,R_DIMA_8,R_DIMB_10,R_DIMB_8,R_DIMA_10</t>
   </si>
   <si>
@@ -259,9 +238,6 @@
     <t>C6,C7,C2,C4</t>
   </si>
   <si>
-    <t>10ÂµF</t>
-  </si>
-  <si>
     <t>LMK107BBJ106MALT TAIYO YUDEN | Mouser Österreich</t>
   </si>
   <si>
@@ -301,18 +277,12 @@
     <t>470k</t>
   </si>
   <si>
-    <t>RC0603FR-07470KS YAGEO | Mouser Österreich</t>
-  </si>
-  <si>
     <t>C_DIMA_4,C_DIMB_27,C_DIMA_27,C_DIMB_19,C_DIMA_35,C_DIMB_4,C_DIMB_35,C_DIMA_19</t>
   </si>
   <si>
     <t>470pF</t>
   </si>
   <si>
-    <t>C0603C471G4HACAUTO KEMET | Mouser Österreich</t>
-  </si>
-  <si>
     <t>R_K8,R_F1,R_K6,R_K4,R_K3,R_K2,R_K9,R_K1,R_K7,R_K5</t>
   </si>
   <si>
@@ -482,6 +452,81 @@
   </si>
   <si>
     <t>NTR4003NT1G onsemi | Mouser Österreich</t>
+  </si>
+  <si>
+    <t>LED5000PHR STMicroelectronics | Mouser Österreich</t>
+  </si>
+  <si>
+    <t>MCP9700T-E/LT Microchip Technology | Mouser Österreich</t>
+  </si>
+  <si>
+    <t>Not mounted</t>
+  </si>
+  <si>
+    <t>ISO7742FTBDWRQ1 Texas Instruments | Mouser Österreich</t>
+  </si>
+  <si>
+    <t>MBR0520-TP Micro Commercial Components (MCC) | Mouser Österreich</t>
+  </si>
+  <si>
+    <t>SN65LBC176QDRQ1 Texas Instruments | Mouser Österreich</t>
+  </si>
+  <si>
+    <t>TPS76350DBVT Texas Instruments | Mouser Österreich</t>
+  </si>
+  <si>
+    <t>https://www.mouser.at/ProductDetail/onsemi/MMSD914T1G?qs=P4IOph%252Bbot8PMEQIZWg1LQ%3D%3D</t>
+  </si>
+  <si>
+    <t>BZT52-B68J Nexperia | Mouser Österreich</t>
+  </si>
+  <si>
+    <t>47µH  3.8A</t>
+  </si>
+  <si>
+    <t>47 µF</t>
+  </si>
+  <si>
+    <t>1 µF 50V</t>
+  </si>
+  <si>
+    <t>https://www.mouser.at/ProductDetail/Vishay-Draloric/RCA0603100KFKEAHP?qs=rrS6PyfT74exmGMHOWeh9Q%3D%3D</t>
+  </si>
+  <si>
+    <t>10µF</t>
+  </si>
+  <si>
+    <t>10µH</t>
+  </si>
+  <si>
+    <t>https://www.mouser.at/ProductDetail/YAGEO/RC0603FR-07470KP?qs=qpJ%252B%252B%252Bdg6p1kr0jBLk7M1w%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.at/ProductDetail/Murata-Electronics/GCM1885G2A471JA16D?qs=fGlRhPlbk9z%252BfQIA9svLZw%3D%3D</t>
+  </si>
+  <si>
+    <t>MCU J2</t>
+  </si>
+  <si>
+    <t>PinHeader 2x20 P2.54 SMD Vertical</t>
+  </si>
+  <si>
+    <t>MCU J1 + J3</t>
+  </si>
+  <si>
+    <t>PinHeader 2x16 P2.54 SMD Vertical</t>
+  </si>
+  <si>
+    <t>MCU J4</t>
+  </si>
+  <si>
+    <t>PinHeader 2x12 P2.54 SMD Vertical</t>
+  </si>
+  <si>
+    <t>https://www.mouser.at/ProductDetail/200-HW1011FD610SM</t>
+  </si>
+  <si>
+    <t>Quantitiy ordered</t>
   </si>
 </sst>
 </file>
@@ -489,7 +534,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]\-&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="168" formatCode="_-[$€-C07]\ * #,##0.00_-;\-[$€-C07]\ * #,##0.00_-;_-[$€-C07]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -977,10 +1022,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1357,20 +1403,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20ACB47-8121-46F6-9D04-D7BB514EC098}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="169.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="110.85546875" customWidth="1"/>
     <col min="11" max="12" width="49.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1386,92 +1438,96 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>17</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G2">
+        <f>D2*10</f>
+        <v>170</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3">
+        <f>F2*H2</f>
+        <v>6.7830000000000004</v>
+      </c>
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G2">
-        <v>170</v>
-      </c>
-      <c r="H2">
-        <v>180</v>
-      </c>
-      <c r="I2" s="1">
-        <v>71.819999999999993</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.15</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.14199999999999999</v>
       </c>
       <c r="G3">
+        <f t="shared" ref="G3:G49" si="0">D3*10</f>
         <v>80</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
-      <c r="I3" s="1">
-        <v>14.9</v>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I48" si="1">F3*H3</f>
+        <v>14.2</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>20715562</v>
@@ -1480,126 +1536,134 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.24</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="1"/>
+        <v>12.4</v>
+      </c>
+      <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1">
-        <v>1.24</v>
-      </c>
-      <c r="G4">
-        <v>90</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4" s="1">
-        <v>124</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.152</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.52</v>
+      </c>
+      <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1">
-        <v>1.52</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1">
-        <v>22.8</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
+        <v>154</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
       </c>
       <c r="G6">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
-        <v>28</v>
+      <c r="I6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.04</v>
+        <v>155</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="G7">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H7">
         <v>100</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>1752201</v>
@@ -1610,276 +1674,297 @@
       <c r="E8">
         <v>1752201</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>12.94</v>
       </c>
       <c r="G8">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="H8">
         <v>9</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
         <v>116.46</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.04</v>
+        <v>34</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="G9">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H9">
         <v>110</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="3">
+        <f t="shared" si="1"/>
         <v>4.62</v>
       </c>
-      <c r="J9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.03</v>
+        <v>36</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G10">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H10">
         <v>100</v>
       </c>
-      <c r="I10" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="3">
+        <f>F10*H10 + 1.64</f>
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.02</v>
+        <v>40</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.4E-2</v>
       </c>
       <c r="G11">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H11">
         <v>100</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
+        <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.48</v>
+        <v>44</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.54600000000000004</v>
       </c>
       <c r="G12">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H12">
-        <v>93</v>
-      </c>
-      <c r="I12" s="1">
-        <v>44.36</v>
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="1"/>
+        <v>54.6</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.495</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D13">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.5</v>
+        <v>153</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.495</v>
       </c>
       <c r="G13">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H13">
         <v>100</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
+        <f t="shared" si="1"/>
         <v>49.5</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="1">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2">
         <v>1.33</v>
       </c>
       <c r="G14">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H14">
-        <v>11</v>
-      </c>
-      <c r="I14" s="1">
-        <v>14.63</v>
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.33</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="1">
+        <v>55</v>
+      </c>
+      <c r="F15" s="2">
         <v>0.28999999999999998</v>
       </c>
       <c r="G15">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H15">
         <v>15</v>
       </c>
-      <c r="I15" s="1">
-        <v>4.34</v>
+      <c r="I15" s="3">
+        <f t="shared" si="1"/>
+        <v>4.3499999999999996</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
+        <v>58</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
       </c>
       <c r="G16">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
-        <v>28</v>
+      <c r="I16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1887,31 +1972,33 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D17">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.01</v>
+        <v>61</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G17">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H17">
-        <v>120</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1.44</v>
-      </c>
-      <c r="J17" t="s">
-        <v>68</v>
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1919,31 +2006,33 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D18">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.01</v>
+        <v>63</v>
+      </c>
+      <c r="F18" s="2">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G18">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H18">
         <v>100</v>
       </c>
-      <c r="I18" s="1">
-        <v>0.7</v>
+      <c r="I18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="J18" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1951,31 +2040,33 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D19">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G19">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H19">
         <v>100</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="3">
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="J19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1983,31 +2074,33 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.01</v>
+        <v>69</v>
+      </c>
+      <c r="F20" s="2">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G20">
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="H20">
         <v>200</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="3">
+        <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
       <c r="J20" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2015,31 +2108,33 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.03</v>
+        <v>157</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G21">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="H21">
         <v>100</v>
       </c>
-      <c r="I21" s="1">
-        <v>2.8</v>
+      <c r="I21" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000003</v>
       </c>
       <c r="J21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2047,31 +2142,33 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.69</v>
+        <v>158</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.69299999999999995</v>
       </c>
       <c r="G22">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="3">
+        <f t="shared" si="1"/>
         <v>6.93</v>
       </c>
       <c r="J22" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2079,31 +2176,33 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2.29</v>
+        <v>78</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2.11</v>
       </c>
       <c r="G23">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H23">
-        <v>10</v>
-      </c>
-      <c r="I23" s="1">
-        <v>22.9</v>
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="1"/>
+        <v>2.11</v>
       </c>
       <c r="J23" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2111,31 +2210,33 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.01</v>
+        <v>81</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G24">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H24">
         <v>100</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="3">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="J24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2143,31 +2244,33 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.01</v>
+        <v>84</v>
+      </c>
+      <c r="F25" s="2">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G25">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H25">
-        <v>120</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="J25" t="s">
-        <v>93</v>
+        <v>100</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2175,31 +2278,33 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D26">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.03</v>
+        <v>86</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2.7E-2</v>
       </c>
       <c r="G26">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H26">
         <v>100</v>
       </c>
-      <c r="I26" s="1">
-        <v>3</v>
-      </c>
-      <c r="J26" t="s">
-        <v>96</v>
+      <c r="I26" s="3">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2207,10 +2312,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -2218,20 +2323,22 @@
       <c r="E27">
         <v>100</v>
       </c>
-      <c r="F27" s="1">
-        <v>0.01</v>
+      <c r="F27" s="2">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G27">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H27">
         <v>120</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="3">
+        <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
       <c r="J27" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2239,31 +2346,33 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.16</v>
+        <v>91</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.16300000000000001</v>
       </c>
       <c r="G28">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H28">
         <v>10</v>
       </c>
-      <c r="I28" s="1">
-        <v>1.63</v>
+      <c r="I28" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6300000000000001</v>
       </c>
       <c r="J28" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2271,31 +2380,33 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="1">
+        <v>95</v>
+      </c>
+      <c r="F29" s="2">
         <v>12.75</v>
       </c>
       <c r="G29">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H29">
-        <v>10</v>
-      </c>
-      <c r="I29" s="1">
-        <v>127.5</v>
+        <v>2</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
       </c>
       <c r="J29" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2303,25 +2414,33 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D30">
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>99</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="G30">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I30" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>153</v>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="1"/>
+        <v>3.6999999999999997</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2329,22 +2448,33 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D31">
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>102</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1.39</v>
       </c>
       <c r="G31">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="I31" t="s">
-        <v>28</v>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="1"/>
+        <v>13.899999999999999</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2352,22 +2482,33 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.34399999999999997</v>
       </c>
       <c r="G32">
-        <v>10</v>
-      </c>
-      <c r="I32" t="s">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="1"/>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2375,22 +2516,33 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>107</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
       </c>
       <c r="G33">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I33" t="s">
-        <v>28</v>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2398,31 +2550,33 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0.75</v>
+        <v>110</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.745</v>
       </c>
       <c r="G34">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H34">
-        <v>12</v>
-      </c>
-      <c r="I34" s="1">
-        <v>8.94</v>
+        <v>10</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="1"/>
+        <v>7.45</v>
       </c>
       <c r="J34" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2430,37 +2584,39 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D35">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>124</v>
-      </c>
-      <c r="F35" s="1">
+        <v>114</v>
+      </c>
+      <c r="F35" s="2">
         <v>0.47</v>
       </c>
       <c r="G35">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H35">
         <v>50</v>
       </c>
-      <c r="I35" s="1">
-        <v>23.4</v>
+      <c r="I35" s="3">
+        <f t="shared" si="1"/>
+        <v>23.5</v>
       </c>
       <c r="J35" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K35" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="L35" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2468,22 +2624,33 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D36">
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
       </c>
       <c r="G36">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="I36" t="s">
-        <v>28</v>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2491,22 +2658,33 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>132</v>
+        <v>122</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2.42</v>
       </c>
       <c r="G37">
-        <v>10</v>
-      </c>
-      <c r="I37" t="s">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="1"/>
+        <v>24.2</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2514,31 +2692,33 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" t="s">
-        <v>28</v>
+        <v>124</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
       </c>
       <c r="G38">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" t="s">
-        <v>28</v>
+      <c r="I38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2546,22 +2726,33 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>127</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.114</v>
       </c>
       <c r="G39">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I39" t="s">
-        <v>28</v>
+      <c r="H39">
+        <v>20</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2800000000000002</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2569,31 +2760,33 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" t="s">
-        <v>28</v>
+        <v>129</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
       </c>
       <c r="G40">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40" t="s">
-        <v>28</v>
+      <c r="I40" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2601,31 +2794,33 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
-      </c>
-      <c r="F41" t="s">
-        <v>28</v>
+        <v>131</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
       </c>
       <c r="G41">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" t="s">
-        <v>28</v>
+      <c r="I41" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2633,31 +2828,33 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" t="s">
-        <v>28</v>
+        <v>133</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
       </c>
       <c r="G42">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" t="s">
-        <v>28</v>
+      <c r="I42" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2665,22 +2862,33 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
+        <v>136</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2.33</v>
       </c>
       <c r="G43">
-        <v>10</v>
-      </c>
-      <c r="I43" t="s">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="1"/>
+        <v>2.33</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2688,22 +2896,33 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>138</v>
+      </c>
+      <c r="F44" s="2">
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="G44">
-        <v>10</v>
-      </c>
-      <c r="I44" t="s">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2711,31 +2930,33 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>150</v>
-      </c>
-      <c r="F45" t="s">
-        <v>28</v>
+        <v>140</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
       </c>
       <c r="G45">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" t="s">
-        <v>28</v>
+      <c r="I45" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2743,27 +2964,156 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>152</v>
+        <v>142</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.69899999999999995</v>
       </c>
       <c r="G46">
-        <v>10</v>
-      </c>
-      <c r="I46" t="s">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="1"/>
+        <v>6.9899999999999993</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="1"/>
+        <v>5.96</v>
+      </c>
+      <c r="J47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="1"/>
+        <v>5.96</v>
+      </c>
+      <c r="J48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" ref="I49" si="2">F49*H49</f>
+        <v>2.98</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I51" s="2">
+        <f>SUM(I2:I48)</f>
+        <v>424.05099999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I52" s="2">
+        <f>I51-I8</f>
+        <v>307.59099999999995</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J30" r:id="rId1" display="https://www.mouser.at/ProductDetail/onsemi/NTR4003NT1G?qs=CBDP9nzV7kme%2Fyh64xROOQ%3D%3D" xr:uid="{689B365C-E9CC-439D-99FC-7BDAFD7BF2C4}"/>
+    <hyperlink ref="J31" r:id="rId2" display="https://www.mouser.at/ProductDetail/STMicroelectronics/LED5000PHR?qs=MSnG1hQWQLXEtGGcTXnZpA%3D%3D" xr:uid="{786692FD-C8D5-4DF9-823A-BAAEED58CAA8}"/>
+    <hyperlink ref="J32" r:id="rId3" display="https://www.mouser.at/ProductDetail/Microchip-Technology/MCP9700T-E-LT?qs=RnzODY3cU8tW7jSxAPzBuw%3D%3D" xr:uid="{B029DCDE-8EF7-4B7A-8BF4-F01BD3801DFA}"/>
+    <hyperlink ref="J37" r:id="rId4" display="https://www.mouser.at/ProductDetail/Texas-Instruments/ISO7742FTBDWRQ1?qs=efUn273yAhcm4v0l5sVOsQ%3D%3D" xr:uid="{0D37B2C9-2B5F-439F-9EA4-F452BD507E44}"/>
+    <hyperlink ref="J39" r:id="rId5" display="https://www.mouser.at/ProductDetail/Micro-Commercial-Components-MCC/MBR0520-TP?qs=Oupk%2FUD005gN%2Fsy5ULAgCw%3D%3D" xr:uid="{1E977A4A-5338-4A6F-8225-25FD5C3A6D4D}"/>
+    <hyperlink ref="J43" r:id="rId6" display="https://www.mouser.at/ProductDetail/Texas-Instruments/SN65LBC176QDRQ1?qs=UnBokwpwLz%2F%2FuNS0W0w55g%3D%3D" xr:uid="{01038168-2DC4-4AD0-8A9F-9092F31FCD8C}"/>
+    <hyperlink ref="J46" r:id="rId7" display="https://www.mouser.at/ProductDetail/Texas-Instruments/TPS76350DBVT?qs=8yeEWhuAOtP%2FFGo0oRuSfA%3D%3D" xr:uid="{DB03D892-5617-4B04-BB95-255AC9367316}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{B6600137-BFD6-4430-9A25-981EE029B734}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{88CD4013-9DCC-495A-B886-C03D508887FC}"/>
+    <hyperlink ref="K10" r:id="rId10" display="https://www.mouser.at/ProductDetail/Nexperia/BZT52-B68J?qs=W0yvOO0ixfHDugOwJJQdtw%3D%3D" xr:uid="{742A0355-F77C-4BF2-B8A0-72BEA6AB96A3}"/>
+    <hyperlink ref="J17" r:id="rId11" xr:uid="{7BFD0087-10BB-45F9-AAA0-F7596AE48B08}"/>
+    <hyperlink ref="J25" r:id="rId12" xr:uid="{0CE1122D-5A25-42FB-A88D-88D090444CB3}"/>
+    <hyperlink ref="J26" r:id="rId13" xr:uid="{422E622A-E6A4-49B1-92C4-8688D8617BDB}"/>
+    <hyperlink ref="J49" r:id="rId14" xr:uid="{68EEAEA9-53D4-42FF-B171-D70334C54E53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
